--- a/Result/LSTM Multi/Service/AUS.xlsx
+++ b/Result/LSTM Multi/Service/AUS.xlsx
@@ -399,7 +399,7 @@
         <v>1990</v>
       </c>
       <c r="B2">
-        <v>13.79344438155173</v>
+        <v>59.50010999359813</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -407,7 +407,7 @@
         <v>1991</v>
       </c>
       <c r="B3">
-        <v>12.5698102029463</v>
+        <v>61.24874468069734</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -415,7 +415,7 @@
         <v>1992</v>
       </c>
       <c r="B4">
-        <v>12.58015887642892</v>
+        <v>61.8935216033193</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -423,7 +423,7 @@
         <v>1993</v>
       </c>
       <c r="B5">
-        <v>12.87318388719052</v>
+        <v>62.55959911574948</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -431,7 +431,7 @@
         <v>1994</v>
       </c>
       <c r="B6">
-        <v>13.20501995208072</v>
+        <v>62.52566339061073</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -439,7 +439,7 @@
         <v>1995</v>
       </c>
       <c r="B7">
-        <v>13.12367686560688</v>
+        <v>62.43297296315505</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -447,7 +447,7 @@
         <v>1996</v>
       </c>
       <c r="B8">
-        <v>12.7424163318427</v>
+        <v>62.48231297149646</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -455,7 +455,7 @@
         <v>1997</v>
       </c>
       <c r="B9">
-        <v>12.30366539207597</v>
+        <v>63.43740393379319</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -463,7 +463,7 @@
         <v>1998</v>
       </c>
       <c r="B10">
-        <v>12.47074767085228</v>
+        <v>63.60619656885888</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -471,7 +471,7 @@
         <v>1999</v>
       </c>
       <c r="B11">
-        <v>11.95283158647435</v>
+        <v>64.35908420354181</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -479,7 +479,7 @@
         <v>2000</v>
       </c>
       <c r="B12">
-        <v>11.57011554701219</v>
+        <v>64.38066136534678</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -487,7 +487,7 @@
         <v>2001</v>
       </c>
       <c r="B13">
-        <v>10.99301372481012</v>
+        <v>64.17506034244782</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -495,7 +495,7 @@
         <v>2002</v>
       </c>
       <c r="B14">
-        <v>10.55534894431952</v>
+        <v>63.9761030944481</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -503,7 +503,7 @@
         <v>2003</v>
       </c>
       <c r="B15">
-        <v>10.86216994180758</v>
+        <v>64.30586534747231</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -511,7 +511,7 @@
         <v>2004</v>
       </c>
       <c r="B16">
-        <v>10.88215706600108</v>
+        <v>64.28204935168723</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -519,7 +519,7 @@
         <v>2005</v>
       </c>
       <c r="B17">
-        <v>10.33486230097914</v>
+        <v>64.36243563356258</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -527,7 +527,7 @@
         <v>2006</v>
       </c>
       <c r="B18">
-        <v>9.892071199355792</v>
+        <v>63.70864031345024</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -535,7 +535,7 @@
         <v>2007</v>
       </c>
       <c r="B19">
-        <v>9.290666490144647</v>
+        <v>64.31800441856682</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -543,7 +543,7 @@
         <v>2008</v>
       </c>
       <c r="B20">
-        <v>9.202198922938425</v>
+        <v>64.46163466621188</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -551,7 +551,7 @@
         <v>2009</v>
       </c>
       <c r="B21">
-        <v>8.453526785289274</v>
+        <v>64.06945674146428</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -559,7 +559,7 @@
         <v>2010</v>
       </c>
       <c r="B22">
-        <v>7.997034212477491</v>
+        <v>65.68996774782823</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -567,7 +567,7 @@
         <v>2011</v>
       </c>
       <c r="B23">
-        <v>7.368513108841397</v>
+        <v>64.62608734901947</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -575,7 +575,7 @@
         <v>2012</v>
       </c>
       <c r="B24">
-        <v>7.05045459273345</v>
+        <v>65.16198116553896</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -583,7 +583,7 @@
         <v>2013</v>
       </c>
       <c r="B25">
-        <v>6.608333214010963</v>
+        <v>66.25047023861437</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -591,7 +591,7 @@
         <v>2014</v>
       </c>
       <c r="B26">
-        <v>6.368634633947076</v>
+        <v>65.68628002950167</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -599,7 +599,7 @@
         <v>2015</v>
       </c>
       <c r="B27">
-        <v>6.299997474136078</v>
+        <v>67.23042717287444</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -607,7 +607,7 @@
         <v>2016</v>
       </c>
       <c r="B28">
-        <v>6.085499329208853</v>
+        <v>68.22132971073941</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +636,7 @@
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>8.56843376159668</v>
+        <v>64.86769866943359</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -644,7 +644,7 @@
         <v>2018</v>
       </c>
       <c r="B3">
-        <v>8.594244956970215</v>
+        <v>64.92296600341797</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -652,7 +652,7 @@
         <v>2019</v>
       </c>
       <c r="B4">
-        <v>8.607088088989258</v>
+        <v>64.6788330078125</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -660,7 +660,7 @@
         <v>2020</v>
       </c>
       <c r="B5">
-        <v>8.246576309204102</v>
+        <v>64.68363189697266</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -668,7 +668,7 @@
         <v>2021</v>
       </c>
       <c r="B6">
-        <v>8.106736183166504</v>
+        <v>64.55635833740234</v>
       </c>
     </row>
   </sheetData>
@@ -697,7 +697,7 @@
         <v>1990</v>
       </c>
       <c r="B2">
-        <v>13.79344438155173</v>
+        <v>59.50010999359813</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -705,7 +705,7 @@
         <v>1991</v>
       </c>
       <c r="B3">
-        <v>12.5698102029463</v>
+        <v>61.24874468069734</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -713,7 +713,7 @@
         <v>1992</v>
       </c>
       <c r="B4">
-        <v>12.58015887642892</v>
+        <v>61.8935216033193</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -721,7 +721,7 @@
         <v>1993</v>
       </c>
       <c r="B5">
-        <v>12.87318388719052</v>
+        <v>62.55959911574948</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -729,7 +729,7 @@
         <v>1994</v>
       </c>
       <c r="B6">
-        <v>13.20501995208072</v>
+        <v>62.52566339061073</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -737,7 +737,7 @@
         <v>1995</v>
       </c>
       <c r="B7">
-        <v>13.12367686560688</v>
+        <v>62.43297296315505</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -745,7 +745,7 @@
         <v>1996</v>
       </c>
       <c r="B8">
-        <v>12.7424163318427</v>
+        <v>62.48231297149646</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -753,7 +753,7 @@
         <v>1997</v>
       </c>
       <c r="B9">
-        <v>12.30366539207597</v>
+        <v>63.43740393379319</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -761,7 +761,7 @@
         <v>1998</v>
       </c>
       <c r="B10">
-        <v>12.47074767085228</v>
+        <v>63.60619656885888</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -769,7 +769,7 @@
         <v>1999</v>
       </c>
       <c r="B11">
-        <v>11.95283158647435</v>
+        <v>64.35908420354181</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -777,7 +777,7 @@
         <v>2000</v>
       </c>
       <c r="B12">
-        <v>11.57011554701219</v>
+        <v>64.38066136534678</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -785,7 +785,7 @@
         <v>2001</v>
       </c>
       <c r="B13">
-        <v>10.99301372481012</v>
+        <v>64.17506034244782</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -793,7 +793,7 @@
         <v>2002</v>
       </c>
       <c r="B14">
-        <v>10.55534894431952</v>
+        <v>63.9761030944481</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -801,7 +801,7 @@
         <v>2003</v>
       </c>
       <c r="B15">
-        <v>10.86216994180758</v>
+        <v>64.30586534747231</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -809,7 +809,7 @@
         <v>2004</v>
       </c>
       <c r="B16">
-        <v>10.88215706600108</v>
+        <v>64.28204935168723</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -817,7 +817,7 @@
         <v>2005</v>
       </c>
       <c r="B17">
-        <v>10.33486230097914</v>
+        <v>64.36243563356258</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -825,7 +825,7 @@
         <v>2006</v>
       </c>
       <c r="B18">
-        <v>9.892071199355792</v>
+        <v>63.70864031345024</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -833,7 +833,7 @@
         <v>2007</v>
       </c>
       <c r="B19">
-        <v>9.290666490144647</v>
+        <v>64.31800441856682</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -841,7 +841,7 @@
         <v>2008</v>
       </c>
       <c r="B20">
-        <v>9.202198922938425</v>
+        <v>64.46163466621188</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -849,7 +849,7 @@
         <v>2009</v>
       </c>
       <c r="B21">
-        <v>8.453526785289274</v>
+        <v>64.06945674146428</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -857,7 +857,7 @@
         <v>2010</v>
       </c>
       <c r="B22">
-        <v>7.997034212477491</v>
+        <v>65.68996774782823</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -865,7 +865,7 @@
         <v>2011</v>
       </c>
       <c r="B23">
-        <v>7.368513108841397</v>
+        <v>64.62608734901947</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -873,7 +873,7 @@
         <v>2012</v>
       </c>
       <c r="B24">
-        <v>7.05045459273345</v>
+        <v>65.16198116553896</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -881,7 +881,7 @@
         <v>2013</v>
       </c>
       <c r="B25">
-        <v>6.608333214010963</v>
+        <v>66.25047023861437</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -889,7 +889,7 @@
         <v>2014</v>
       </c>
       <c r="B26">
-        <v>6.368634633947076</v>
+        <v>65.68628002950167</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -897,7 +897,7 @@
         <v>2015</v>
       </c>
       <c r="B27">
-        <v>6.299997474136078</v>
+        <v>67.23042717287444</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -905,7 +905,7 @@
         <v>2016</v>
       </c>
       <c r="B28">
-        <v>6.085499329208853</v>
+        <v>68.22132971073941</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -913,7 +913,7 @@
         <v>2017</v>
       </c>
       <c r="B29">
-        <v>5.798737462442747</v>
+        <v>67.01452952684967</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -921,7 +921,7 @@
         <v>2018</v>
       </c>
       <c r="B30">
-        <v>5.777271824567839</v>
+        <v>66.65724334842149</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -929,7 +929,7 @@
         <v>2019</v>
       </c>
       <c r="B31">
-        <v>5.615118064276127</v>
+        <v>66.06471595311547</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -937,7 +937,7 @@
         <v>2020</v>
       </c>
       <c r="B32">
-        <v>5.651114209643661</v>
+        <v>66.28080849487043</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -945,7 +945,7 @@
         <v>2021</v>
       </c>
       <c r="B33">
-        <v>5.565623775405053</v>
+        <v>65.71380883498387</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +974,7 @@
         <v>2022</v>
       </c>
       <c r="B2">
-        <v>11.57023620605469</v>
+        <v>64.75798034667969</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -982,7 +982,7 @@
         <v>2023</v>
       </c>
       <c r="B3">
-        <v>11.77637672424316</v>
+        <v>64.74315643310547</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -990,7 +990,7 @@
         <v>2024</v>
       </c>
       <c r="B4">
-        <v>11.95137691497803</v>
+        <v>64.56720733642578</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -998,7 +998,7 @@
         <v>2025</v>
       </c>
       <c r="B5">
-        <v>12.29074096679688</v>
+        <v>64.50515747070312</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>2026</v>
       </c>
       <c r="B6">
-        <v>13.16607475280762</v>
+        <v>64.22486114501953</v>
       </c>
     </row>
   </sheetData>
